--- a/3-1/디지털논리회로_기출.xlsx
+++ b/3-1/디지털논리회로_기출.xlsx
@@ -8,14 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/bacbd6586d17699e/바탕 화면/3-1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="122" documentId="8_{59EE6EA8-B2DD-422C-853F-3BE83DFF660D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E5A9300E-FCBF-4176-9C68-211B579A931A}"/>
+  <xr:revisionPtr revIDLastSave="236" documentId="8_{59EE6EA8-B2DD-422C-853F-3BE83DFF660D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8EB7A6F3-33B7-4B42-A4F6-FCA9021669CE}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{5C7B36F0-6356-40D7-B295-EC2F93FFA763}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" activeTab="1" xr2:uid="{5C7B36F0-6356-40D7-B295-EC2F93FFA763}"/>
   </bookViews>
   <sheets>
     <sheet name="2019" sheetId="1" r:id="rId1"/>
+    <sheet name="2018" sheetId="5" r:id="rId2"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'2018'!$B$1:$B$14</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'2019'!$B$1:$B$14</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -38,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="67">
   <si>
     <t>문제</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -2539,6 +2541,1504 @@
         <charset val="129"/>
       </rPr>
       <t xml:space="preserve">)
+</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>상호작용, 구성요소</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10110010</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>B, 2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>NOT</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>멀티플렉서</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>XXOX</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>JK플립플롭</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>NOT 게이트</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>링 카운터</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PAL</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">일반적으로 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>시스템</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">의 또 다른 정의는 블랙박스 내부에 관하여 규정한 것으로, 시스템은 부여된 목적을 달성하기 위하여 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>ㅇㅇㅇㅇ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">을 하는 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>ㅇㅇㅇㅇ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">들의 집합임.
+</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">10진수 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>14</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>와 동치인 것
+1) 1111</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="6"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">
+2) 30</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="6"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">
+3) 15</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="6"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">
+4) E</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="6"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>16</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">2진수 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>01001101</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="6"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">에 대한 1의 보수는?
+</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">2진수 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>1011.01101</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="6"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">을 8진수로 변환한 것은?
+</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">2진수 A와 B의 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>감산(A-B)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">는 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>ㅇ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">의 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>ㅇ-보수</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">를 구하여 더해준 다음 올림수를 무시한 나머지를 결과로 갖음.
+</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>OXXX</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">입력변수 X, Y, Z
+- 최소항 m1은 </t>
+    </r>
+    <r>
+      <rPr>
+        <u val="double"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>XY</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>Z (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>O/X</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>)
+- 최소항 m3은 X+</t>
+    </r>
+    <r>
+      <rPr>
+        <u val="double"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>Y</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>+</t>
+    </r>
+    <r>
+      <rPr>
+        <u val="double"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>Z</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>O/X</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">)
+- 최대항 M4은 </t>
+    </r>
+    <r>
+      <rPr>
+        <u val="double"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>X</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>YZ (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>O/X</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">)
+- 최대항 M6은 </t>
+    </r>
+    <r>
+      <rPr>
+        <u val="double"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>X</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>+Y+</t>
+    </r>
+    <r>
+      <rPr>
+        <u val="double"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>Z</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>O/X</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <u val="double"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>2진수</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">의 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>1의 보수</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">를 구하기 위해 사용되는 게이트는?
+</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>부울함수</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> F=X+</t>
+    </r>
+    <r>
+      <rPr>
+        <u val="double"/>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>X</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>Y</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>를 간소화
+1) F=X+Y
+2) F=</t>
+    </r>
+    <r>
+      <rPr>
+        <u val="double"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>X</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>+Y
+3) F=</t>
+    </r>
+    <r>
+      <rPr>
+        <u val="double"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>X</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>+</t>
+    </r>
+    <r>
+      <rPr>
+        <u val="double"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>Y</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">
+4) F=X
+</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">논리게이트의 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>대수식</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 표현
+1) F=XY
+2) F=</t>
+    </r>
+    <r>
+      <rPr>
+        <u val="double"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>X+Y</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">
+3) F=X(+)Y
+4) F=</t>
+    </r>
+    <r>
+      <rPr>
+        <u val="double"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>X(+)Y</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">다음 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>논리회로</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">와 동일한 기능을 하는 것?
+1) AND 게이트
+2) OR 게이트
+3) NAND 게이트
+4) NOR 게이트
+</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>데이터 선택기</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">라고도 불리우며, 2^n개의 입력선 중에서 하나를 선택하여 단일의 출력을 내보냄. 이때, 특정 입력선의 선택은 n개의 선택변수의 조합으로 제어함. 이것과 관련 깊은 조합회로는?
+</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>15개</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">의 개념을 인코딩하기 위한 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>가장 작은 규모</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">의 인코더는?
+1) 16x3 인코더
+2) 16x4 인코더
+3) 20x5 인코더 
+4) 32x5 인코더
+</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>디코더</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>에 관한 설명
+- 2^n개의 입력과 n개의 출력을 갖는 조합회로 (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>O/X</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>)
+- 2^n개의 입력을 제어하기 위한 2^n개의 제어입력 필요 (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>O/X</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>)
+- n비트의 2진 코드를 최대 2^n개의 서로 다른 정보로 바꿔 주는 조합논리회로 (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>O/X</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>)
+- 6x64라인 디코더는 구동입력이 있는 3개의 4x16라인 디코더를 결합해 만들 수 있음. (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>O/X</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">)
+</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">특성표를 만족하는 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>플립플롭</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">은?
+</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">플립플롭에서 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>레이스 현상</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">을 방지하기 위해 사용되는 것은?
+1) RS 플립플롭
+2) 마스터-슬레이브(M/S) 플립플롭
+3) D 플립플롭
+4) JK 플립플롭
+</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>JK 플립플롭</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">을 사용하여 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>D 플립플롭</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">을 만드려고 할 때, 필요한 게이트는?
+</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>카운터</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>에 대한 설명
+- 모듈로-n 카운터는 n개의 상태를 반복하는 카운터 (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>O/X</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>)
+- 카운터를 동작 클럭펄스의 인가 방식에 따라 분류하면 비동기식과 동기식 카운터로 나눌 수 있음. (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>O/X</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>)
+- BCD 리플 카운터는 0부터 9까지 10개의 상태를 계수하는 카운터 (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>O/X</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>)
+- 카운터는 입력펄스의 적용에 따라 미리 정해진 순서를 밟아가는 조합논리회로 (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>O/X</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">)
+</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">다음 회로는 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>무슨 회로</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">인가?
+1) 동기식 2진 카운터
+2) 비동기식 2진 카운터
+3) 우측 시프트 레지스터
+4) 좌측 시프트 레지스터
+</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>시프트 레지스터</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">를 사용하여 임의의 시간에 시프트 레지스터 중에서 1개의 플립플롭만 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>논리-1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">이 되고, 나머지 플립플롭은 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>논리-0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">이 되도록 하는 카운터는?
+</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>8K x 16 RAM에 관한 설명
+- 데이터 입력선은 8개 (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>O/X</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>)
+- 데이터 출력선은 16개 (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>O/X</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>)
+- 단어는 모두 16,000개 (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>O/X</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>)
+- 주소선은 16개 (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>O/X</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">)
+</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>AND 배열</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">만 프로그래밍할 수 있고, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>OR 배열</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">들은 고정되어 있는 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>PLD</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">는?
 </t>
     </r>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -3051,6 +4551,187 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>3014869</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>72558</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>6354417</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>886526</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="그림 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5204EA35-64E6-D269-157F-88CBB22EDE79}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4790660" y="5618593"/>
+          <a:ext cx="3339548" cy="813968"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>3458817</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>59548</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>5591354</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>1033670</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="그림 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{51745F3D-C37B-9FFC-384F-5DD7528273E2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5234608" y="6705513"/>
+          <a:ext cx="2132537" cy="974122"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>2219739</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>30162</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>4684644</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>923328</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="그림 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9DD489D0-F648-C04C-C85C-D742CB2D2217}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3995530" y="10525884"/>
+          <a:ext cx="2464905" cy="893166"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>2557669</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>83255</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>5824331</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>967257</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="그림 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0D949D58-E3BC-15C3-89C3-8529502FF00B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4333460" y="14243203"/>
+          <a:ext cx="3266662" cy="884002"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
   <a:themeElements>
@@ -3353,8 +5034,8 @@
   </sheetPr>
   <dimension ref="A1:G22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+    <sheetView topLeftCell="A16" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="14.4" x14ac:dyDescent="0.4"/>
@@ -3389,7 +5070,7 @@
     <row r="2" spans="1:7" ht="28.8" x14ac:dyDescent="0.4">
       <c r="A2" s="3">
         <f t="shared" ref="A2:A22" ca="1" si="0">RAND()</f>
-        <v>0.71043043148038698</v>
+        <v>4.0623501997554379E-2</v>
       </c>
       <c r="B2" s="3" t="str">
         <f t="shared" ref="B2:B14" si="1">IF(C2=D2,"O","X")</f>
@@ -3411,7 +5092,7 @@
     <row r="3" spans="1:7" ht="28.8" x14ac:dyDescent="0.4">
       <c r="A3" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.40660521613044176</v>
+        <v>0.43604077665669039</v>
       </c>
       <c r="B3" s="3" t="str">
         <f t="shared" si="1"/>
@@ -3433,7 +5114,7 @@
     <row r="4" spans="1:7" ht="28.8" x14ac:dyDescent="0.4">
       <c r="A4" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.43241392310316207</v>
+        <v>0.36719558108106287</v>
       </c>
       <c r="B4" s="3" t="str">
         <f t="shared" si="1"/>
@@ -3455,7 +5136,7 @@
     <row r="5" spans="1:7" ht="86.4" x14ac:dyDescent="0.4">
       <c r="A5" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.31905782643314651</v>
+        <v>0.46309182517197212</v>
       </c>
       <c r="B5" s="3" t="str">
         <f t="shared" si="1"/>
@@ -3477,7 +5158,7 @@
     <row r="6" spans="1:7" ht="28.8" x14ac:dyDescent="0.4">
       <c r="A6" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>2.0744843475544505E-2</v>
+        <v>0.13362821344746512</v>
       </c>
       <c r="B6" s="3" t="str">
         <f t="shared" si="1"/>
@@ -3499,7 +5180,7 @@
     <row r="7" spans="1:7" ht="86.4" x14ac:dyDescent="0.4">
       <c r="A7" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.72301916083053119</v>
+        <v>0.3720838341903957</v>
       </c>
       <c r="B7" s="3" t="str">
         <f t="shared" si="1"/>
@@ -3521,7 +5202,7 @@
     <row r="8" spans="1:7" ht="86.4" x14ac:dyDescent="0.4">
       <c r="A8" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>1.6966106960182969E-2</v>
+        <v>0.89139913145387961</v>
       </c>
       <c r="B8" s="3" t="str">
         <f t="shared" si="1"/>
@@ -3543,7 +5224,7 @@
     <row r="9" spans="1:7" ht="86.4" x14ac:dyDescent="0.4">
       <c r="A9" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.1267151211840043</v>
+        <v>0.24934646914652814</v>
       </c>
       <c r="B9" s="3" t="str">
         <f t="shared" ref="B9" si="2">IF(C9=D9,"O","X")</f>
@@ -3565,7 +5246,7 @@
     <row r="10" spans="1:7" ht="86.4" x14ac:dyDescent="0.4">
       <c r="A10" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.5459607644058232</v>
+        <v>0.36427370909084822</v>
       </c>
       <c r="B10" s="3" t="str">
         <f t="shared" si="1"/>
@@ -3587,7 +5268,7 @@
     <row r="11" spans="1:7" ht="86.4" x14ac:dyDescent="0.4">
       <c r="A11" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.74837695624797507</v>
+        <v>0.93962044852685289</v>
       </c>
       <c r="B11" s="3" t="str">
         <f t="shared" si="1"/>
@@ -3609,7 +5290,7 @@
     <row r="12" spans="1:7" ht="86.4" x14ac:dyDescent="0.4">
       <c r="A12" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.77756417837626024</v>
+        <v>0.74078715243849447</v>
       </c>
       <c r="B12" s="3" t="str">
         <f t="shared" si="1"/>
@@ -3631,7 +5312,7 @@
     <row r="13" spans="1:7" ht="86.4" x14ac:dyDescent="0.4">
       <c r="A13" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.4833455830744432</v>
+        <v>0.16022140332360357</v>
       </c>
       <c r="B13" s="3" t="str">
         <f t="shared" si="1"/>
@@ -3653,7 +5334,7 @@
     <row r="14" spans="1:7" ht="86.4" x14ac:dyDescent="0.4">
       <c r="A14" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.68121980898605716</v>
+        <v>0.2308360705943252</v>
       </c>
       <c r="B14" s="3" t="str">
         <f t="shared" si="1"/>
@@ -3675,7 +5356,7 @@
     <row r="15" spans="1:7" ht="86.4" x14ac:dyDescent="0.4">
       <c r="A15" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.53263147799261146</v>
+        <v>0.70120677111656937</v>
       </c>
       <c r="B15" s="3" t="str">
         <f t="shared" ref="B15:B22" si="3">IF(C15=D15,"O","X")</f>
@@ -3697,7 +5378,7 @@
     <row r="16" spans="1:7" ht="100.8" x14ac:dyDescent="0.4">
       <c r="A16" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>1.5821635833002889E-2</v>
+        <v>0.33472835285657943</v>
       </c>
       <c r="B16" s="3" t="str">
         <f t="shared" si="3"/>
@@ -3719,7 +5400,7 @@
     <row r="17" spans="1:7" ht="86.4" x14ac:dyDescent="0.4">
       <c r="A17" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>8.6891486555261355E-2</v>
+        <v>0.70291775156730141</v>
       </c>
       <c r="B17" s="3" t="str">
         <f t="shared" si="3"/>
@@ -3741,7 +5422,7 @@
     <row r="18" spans="1:7" ht="86.4" x14ac:dyDescent="0.4">
       <c r="A18" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.48699471638009939</v>
+        <v>0.10571336126224562</v>
       </c>
       <c r="B18" s="3" t="str">
         <f t="shared" si="3"/>
@@ -3763,7 +5444,7 @@
     <row r="19" spans="1:7" ht="86.4" x14ac:dyDescent="0.4">
       <c r="A19" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.26904327068068312</v>
+        <v>0.81253917498053907</v>
       </c>
       <c r="B19" s="3" t="str">
         <f t="shared" si="3"/>
@@ -3785,7 +5466,7 @@
     <row r="20" spans="1:7" ht="86.4" x14ac:dyDescent="0.4">
       <c r="A20" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.67500528279654703</v>
+        <v>0.96896112823521052</v>
       </c>
       <c r="B20" s="3" t="str">
         <f t="shared" si="3"/>
@@ -3807,7 +5488,7 @@
     <row r="21" spans="1:7" ht="86.4" x14ac:dyDescent="0.4">
       <c r="A21" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.24893864597682369</v>
+        <v>0.41711048116785898</v>
       </c>
       <c r="B21" s="3" t="str">
         <f t="shared" si="3"/>
@@ -3829,7 +5510,7 @@
     <row r="22" spans="1:7" ht="86.4" x14ac:dyDescent="0.4">
       <c r="A22" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.65314125147073043</v>
+        <v>0.43059554985496618</v>
       </c>
       <c r="B22" s="3" t="str">
         <f t="shared" si="3"/>
@@ -3859,4 +5540,515 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82C6E9E9-1E01-4076-AA3B-E5546D7DFAA4}">
+  <sheetPr>
+    <tabColor theme="9"/>
+  </sheetPr>
+  <dimension ref="A1:G22"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="14.4" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="4.8984375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="2.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.8984375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="16.19921875" style="2" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="127.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.09765625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="5.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="8.59765625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="1">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="43.2" x14ac:dyDescent="0.4">
+      <c r="A2" s="3">
+        <f t="shared" ref="A2:A22" ca="1" si="0">RAND()</f>
+        <v>0.3399018314084159</v>
+      </c>
+      <c r="B2" s="3" t="str">
+        <f t="shared" ref="B2:B22" si="1">IF(C2=D2,"O","X")</f>
+        <v>X</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="F2" s="1">
+        <v>2018</v>
+      </c>
+      <c r="G2" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="86.4" x14ac:dyDescent="0.4">
+      <c r="A3" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.2316467145896719</v>
+      </c>
+      <c r="B3" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>X</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F3" s="1">
+        <v>2018</v>
+      </c>
+      <c r="G3" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="28.8" x14ac:dyDescent="0.4">
+      <c r="A4" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.55717975307500933</v>
+      </c>
+      <c r="B4" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>X</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F4" s="1">
+        <v>2018</v>
+      </c>
+      <c r="G4" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="28.8" x14ac:dyDescent="0.4">
+      <c r="A5" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.40517945315984893</v>
+      </c>
+      <c r="B5" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>X</v>
+      </c>
+      <c r="C5" s="2">
+        <v>13.32</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="F5" s="1">
+        <v>2018</v>
+      </c>
+      <c r="G5" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="28.8" x14ac:dyDescent="0.4">
+      <c r="A6" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.20899911190022413</v>
+      </c>
+      <c r="B6" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>X</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="F6" s="1">
+        <v>2018</v>
+      </c>
+      <c r="G6" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="86.4" x14ac:dyDescent="0.4">
+      <c r="A7" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.9895244983880459</v>
+      </c>
+      <c r="B7" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>X</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="F7" s="1">
+        <v>2018</v>
+      </c>
+      <c r="G7" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="28.8" x14ac:dyDescent="0.4">
+      <c r="A8" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.83646205814221408</v>
+      </c>
+      <c r="B8" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>X</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="F8" s="1">
+        <v>2018</v>
+      </c>
+      <c r="G8" s="3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="86.4" x14ac:dyDescent="0.4">
+      <c r="A9" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.42097573556312573</v>
+      </c>
+      <c r="B9" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>X</v>
+      </c>
+      <c r="C9" s="2">
+        <v>1</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="F9" s="1">
+        <v>2018</v>
+      </c>
+      <c r="G9" s="3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="86.4" x14ac:dyDescent="0.4">
+      <c r="A10" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>7.2910299257497146E-2</v>
+      </c>
+      <c r="B10" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>X</v>
+      </c>
+      <c r="C10" s="2">
+        <v>3</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="F10" s="1">
+        <v>2018</v>
+      </c>
+      <c r="G10" s="3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="86.4" x14ac:dyDescent="0.4">
+      <c r="A11" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>4.6206074884179826E-2</v>
+      </c>
+      <c r="B11" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>X</v>
+      </c>
+      <c r="C11" s="2">
+        <v>4</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="F11" s="1">
+        <v>2018</v>
+      </c>
+      <c r="G11" s="3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="43.2" x14ac:dyDescent="0.4">
+      <c r="A12" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.6811397390225512</v>
+      </c>
+      <c r="B12" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>X</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="F12" s="1">
+        <v>2018</v>
+      </c>
+      <c r="G12" s="3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="86.4" x14ac:dyDescent="0.4">
+      <c r="A13" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.88298572392495656</v>
+      </c>
+      <c r="B13" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>X</v>
+      </c>
+      <c r="C13" s="2">
+        <v>2</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="F13" s="1">
+        <v>2018</v>
+      </c>
+      <c r="G13" s="3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="86.4" x14ac:dyDescent="0.4">
+      <c r="A14" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.19812353660686544</v>
+      </c>
+      <c r="B14" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>X</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="F14" s="1">
+        <v>2018</v>
+      </c>
+      <c r="G14" s="3">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="86.4" x14ac:dyDescent="0.4">
+      <c r="A15" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>7.3801935915249417E-2</v>
+      </c>
+      <c r="B15" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>X</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="F15" s="1">
+        <v>2018</v>
+      </c>
+      <c r="G15" s="3">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="86.4" x14ac:dyDescent="0.4">
+      <c r="A16" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.2031921765757182</v>
+      </c>
+      <c r="B16" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>X</v>
+      </c>
+      <c r="C16" s="2">
+        <v>2</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="F16" s="1">
+        <v>2018</v>
+      </c>
+      <c r="G16" s="3">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="28.8" x14ac:dyDescent="0.4">
+      <c r="A17" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.74303810069334575</v>
+      </c>
+      <c r="B17" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>X</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="F17" s="1">
+        <v>2018</v>
+      </c>
+      <c r="G17" s="3">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="86.4" x14ac:dyDescent="0.4">
+      <c r="A18" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.72367979434064844</v>
+      </c>
+      <c r="B18" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>X</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="F18" s="1">
+        <v>2018</v>
+      </c>
+      <c r="G18" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="86.4" x14ac:dyDescent="0.4">
+      <c r="A19" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.28908889261366177</v>
+      </c>
+      <c r="B19" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>X</v>
+      </c>
+      <c r="C19" s="2">
+        <v>2</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="F19" s="1">
+        <v>2018</v>
+      </c>
+      <c r="G19" s="3">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="43.2" x14ac:dyDescent="0.4">
+      <c r="A20" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.39625310757560972</v>
+      </c>
+      <c r="B20" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>X</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="F20" s="1">
+        <v>2018</v>
+      </c>
+      <c r="G20" s="3">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="86.4" x14ac:dyDescent="0.4">
+      <c r="A21" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>5.6092590692887523E-2</v>
+      </c>
+      <c r="B21" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>X</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="F21" s="1">
+        <v>2018</v>
+      </c>
+      <c r="G21" s="3">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="28.8" x14ac:dyDescent="0.4">
+      <c r="A22" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.81921416838561378</v>
+      </c>
+      <c r="B22" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>X</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="F22" s="1">
+        <v>2018</v>
+      </c>
+      <c r="G22" s="3">
+        <v>35</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="B1:B14" xr:uid="{BA3C692D-9FB4-42C5-8ADB-F98177B5FAED}"/>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>